--- a/CSET_Web_Project/Documentation/Tasks.xlsx
+++ b/CSET_Web_Project/Documentation/Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Requirement Mapping(s)</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Task Number</t>
   </si>
   <si>
-    <t>Legend</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>CRITICIAL: Get new photo set! Faculty pictures, pictures of Purvine labs, lobbies and halls; see README</t>
   </si>
   <si>
-    <t>Update faculty photo entries and relations</t>
-  </si>
-  <si>
     <t>Refine faculty tile component</t>
   </si>
   <si>
@@ -134,22 +128,145 @@
   </si>
   <si>
     <t>Add CRUD to degree descriptions pages</t>
+  </si>
+  <si>
+    <t>Refine degree content pages as well as the degree tiles page</t>
+  </si>
+  <si>
+    <t>Refine student project implementation</t>
+  </si>
+  <si>
+    <t>Milestone: At this point the project should be in a pseudo-refined state</t>
+  </si>
+  <si>
+    <t>Redesign the database under the csetweb-dev schema</t>
+  </si>
+  <si>
+    <t>Test integration of the new database design, ensure all features operate as before</t>
+  </si>
+  <si>
+    <t>Update/Optimize any necessary CRUD accesses to the database</t>
+  </si>
+  <si>
+    <t>Milestone: Most of the overhaul should be complete by this point; re-evaluate tasks and requirements</t>
+  </si>
+  <si>
+    <t>1.1.1, 1.1.2, 1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.2, 1.1.3</t>
+  </si>
+  <si>
+    <t>Update faculty photo entries and relations in database</t>
+  </si>
+  <si>
+    <t>1.2.1, 1.2.2, 1.2.3, 1.2.7</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2, 2.1.2, 2.1.3, 2.1.4</t>
+  </si>
+  <si>
+    <t>Implement basic student project deletion request view and faculty approval functionality</t>
+  </si>
+  <si>
+    <t>2.1.4, 2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>2.1.1, 2.1.3</t>
+  </si>
+  <si>
+    <t>1.1.2, 1.1.3, 1.2.4, 1.2.5, 1.2.6,
+3.9, 3.10, 3.11</t>
+  </si>
+  <si>
+    <t>3.1, 3.2, 3.3, 3.4</t>
+  </si>
+  <si>
+    <t>3.1, 3.2</t>
+  </si>
+  <si>
+    <t>3.5, 3.6, 3.7, 3.8</t>
+  </si>
+  <si>
+    <t>4.3, 4.4, 4.5.1, 4.5.2, 4.5.3,
+4.5.4, 4.5.5, 4.5.6</t>
+  </si>
+  <si>
+    <t>4.7.4, 4.7.5</t>
+  </si>
+  <si>
+    <t>4.1, 4.2, 4.3, 4.4, 4.6.1, 4.7.1,
+4.7.2, 4.7.3</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>Strikethrough</t>
+  </si>
+  <si>
+    <t>Cut; possibly temporarily</t>
+  </si>
+  <si>
+    <t>Legend; applies to all documents</t>
+  </si>
+  <si>
+    <t>6.2, 6.3, 6.4, 6.5</t>
+  </si>
+  <si>
+    <t>1.2.1, 1.2.2, 1.2.3, 1.2.6, 1.2.7</t>
+  </si>
+  <si>
+    <t>8.1, 8.2, 8.3, 8.4, 8.5, 8.6, 8.7</t>
+  </si>
+  <si>
+    <t>9.1.1, 9.1.2, 9.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1, 1.2.7</t>
   </si>
   <si>
     <t>Note: Each grouping of tasks do not necessarily need to be done in any particular order.
 Note: Previously finished tasks were not drafted into this document.
-Note: README contains information on CRUD privelages, view this when implementing CRUD tasks</t>
-  </si>
-  <si>
-    <t>Refine degree content pages as well as the degree tiles page</t>
+Note: README contains information on CRUD privelages, view this when implementing CRUD tasks
+Note: This listing is not complete, by any means, see the 3rd milestone</t>
+  </si>
+  <si>
+    <t>1st Milestone</t>
+  </si>
+  <si>
+    <t>2nd Milestone</t>
+  </si>
+  <si>
+    <t>3rd Milestone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -260,26 +377,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,19 +412,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,20 +733,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:L32"/>
+      <selection activeCell="E24" sqref="E24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -641,27 +769,27 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -672,107 +800,116 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
+      <c r="B6" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -780,87 +917,104 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="B8" s="20">
+        <v>6.1</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="B9" s="20">
+        <v>6.5</v>
+      </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
+      <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
       <c r="O10" s="2"/>
@@ -868,22 +1022,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
@@ -891,22 +1048,25 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
       <c r="O12" s="2"/>
@@ -914,22 +1074,25 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
       <c r="O13" s="2"/>
@@ -941,18 +1104,18 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
@@ -960,270 +1123,313 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1231,18 +1437,18 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1250,37 +1456,40 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1288,69 +1497,197 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
       <c r="C33">
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
+  <mergeCells count="55">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E40:L40"/>
     <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E38:L38"/>
+    <mergeCell ref="E39:L39"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M3:N3"/>
@@ -1359,7 +1696,41 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="E26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>